--- a/biology/Botanique/Agastache_rupestris/Agastache_rupestris.xlsx
+++ b/biology/Botanique/Agastache_rupestris/Agastache_rupestris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agastache rupestris, appelé communément Agastache rupestre[1], des rochers[2], anisée[3] ou hysope argentée[3], est une espèce de plante nord-américaine de la famille des Lamiaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agastache rupestris, appelé communément Agastache rupestre, des rochers, anisée ou hysope argentée, est une espèce de plante nord-américaine de la famille des Lamiaceae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agastache rupestris est une plante herbacée vivace érectile qui pousse jusqu'à une hauteur maximale de près de 1,2 mètre[4].
-Elle a des tiges et des feuilles gris-vert. Les fleurs orange à bourgeons violets fleurissent du milieu de l'été jusqu'à l'automne et dégagent une odeur agréable[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agastache rupestris est une plante herbacée vivace érectile qui pousse jusqu'à une hauteur maximale de près de 1,2 mètre.
+Elle a des tiges et des feuilles gris-vert. Les fleurs orange à bourgeons violets fleurissent du milieu de l'été jusqu'à l'automne et dégagent une odeur agréable.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Agastache rupestris est originaire de l'Amérique du Nord, du sud des États-Unis (Arizona, Nouveau-Mexique) et du nord du Mexique (Chihuahua).
 </t>
@@ -574,10 +590,12 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agastache rupestris est populaire dans les jardins xérophiles en raison de sa tolérance à la chaleur et de sa capacité à se développer dans un sol sec et pauvre en nutriments, il est souvent planté dans des bacs ou en bordure et utilisé pour attirer les colibris américains[5].
-Les feuilles peuvent être cuisinées[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agastache rupestris est populaire dans les jardins xérophiles en raison de sa tolérance à la chaleur et de sa capacité à se développer dans un sol sec et pauvre en nutriments, il est souvent planté dans des bacs ou en bordure et utilisé pour attirer les colibris américains.
+Les feuilles peuvent être cuisinées.
 </t>
         </is>
       </c>
